--- a/Descargas/R15_6º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_6º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -387,7 +387,7 @@
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Robo Con Retencion De Victimas O Lesiones Graves Art.433 N:3</t>
         </is>
       </c>
       <c r="B19" s="65">
@@ -397,17 +397,17 @@
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Robo Con Retencion De Victimas O Lesiones Graves Art.433 N:3</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B21" s="65">
@@ -417,7 +417,7 @@
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B22" s="65">
@@ -427,7 +427,7 @@
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B23" s="65">
@@ -437,30 +437,20 @@
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c t="inlineStr" r="A26">
-        <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
-        </is>
-      </c>
-      <c r="B26" s="65">
         <v>3</v>
       </c>
     </row>
